--- a/2 - Documentação/Artefato3 - Product Backlog.xlsx
+++ b/2 - Documentação/Artefato3 - Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tecsus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F4367D-826B-4023-AA7A-247BC8C50C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD31B79-69C9-4203-8BB3-2D46EFC553EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{38C93E4E-CE72-4F42-B9FB-CEB64489DB49}"/>
   </bookViews>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
